--- a/data/trans_orig/RUIDO_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF62980-1B5D-418B-861F-77F901D07C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2D0D76-150D-48B2-BB8D-B0D2DB825125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB597D44-3F07-43F8-AB45-1ECFB21BFF94}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2317D916-2104-4DEF-9947-2FE152101C84}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="478">
   <si>
     <t>Población según lo que estaría dispuesta a pagar al año para que la administración pública ponga en marcha actuaciones (+++) en su municipio/ciudad (o lugar de residencia) que haga reducir la contaminación del ruido en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -71,1399 +71,1402 @@
     <t>Más de 50€</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>30 €</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>75,31%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1878,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E7C70-0A00-4A39-A292-B2D928E6F126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24E7F9D-89EC-423E-904A-A63B40895DD4}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1999,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>856</v>
+        <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2014,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2029,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1298</v>
+        <v>1428</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -2050,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2388</v>
+        <v>2628</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2065,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -2080,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>3133</v>
+        <v>3462</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -2116,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2131,22 +2134,22 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2176,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2191,76 +2194,76 @@
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1692</v>
+        <v>1916</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2352</v>
+        <v>2511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>4044</v>
+        <v>4427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2488</v>
+        <v>2780</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>47</v>
@@ -2269,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>48</v>
@@ -2284,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>2991</v>
+        <v>3296</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>50</v>
@@ -2305,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5002</v>
+        <v>5645</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>53</v>
@@ -2320,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4102</v>
+        <v>4585</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
@@ -2335,34 +2338,34 @@
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>9104</v>
+        <v>10230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>5424</v>
+        <v>6315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -2371,7 +2374,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>3370</v>
+        <v>3607</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>65</v>
@@ -2386,13 +2389,13 @@
         <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>8794</v>
+        <v>9921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>68</v>
@@ -2407,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>5652</v>
+        <v>9254</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2422,133 +2425,133 @@
         <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>5887</v>
+        <v>6217</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>11539</v>
+        <v>15470</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1995</v>
+        <v>2152</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>4146</v>
+        <v>4320</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6472</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6141</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7">
         <v>148</v>
       </c>
       <c r="D14" s="7">
-        <v>109309</v>
+        <v>125527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>130960</v>
+        <v>138536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>240269</v>
+        <v>264063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,51 +2563,51 @@
         <v>178</v>
       </c>
       <c r="D15" s="7">
-        <v>134806</v>
+        <v>157176</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>305</v>
       </c>
       <c r="I15" s="7">
-        <v>153879</v>
+        <v>163318</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>483</v>
       </c>
       <c r="N15" s="7">
-        <v>288685</v>
+        <v>320494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2613,46 +2616,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1594</v>
+        <v>1551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3799</v>
+        <v>3543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>5393</v>
+        <v>5093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2844</v>
+        <v>2811</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>50</v>
@@ -2673,37 +2676,37 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>3705</v>
+        <v>3407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>6549</v>
+        <v>6219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,7 +2727,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2739,7 +2742,7 @@
         <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2760,7 +2763,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2775,7 +2778,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2811,13 +2814,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>4606</v>
+        <v>4372</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2832,82 +2835,82 @@
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>2233</v>
+        <v>2070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>6839</v>
+        <v>6442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7">
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>10624</v>
+        <v>11443</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1572</v>
+        <v>1447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>12196</v>
+        <v>12890</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,97 +2922,97 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>9749</v>
+        <v>9908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>8433</v>
+        <v>7634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>18181</v>
+        <v>17542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>5102</v>
+        <v>5262</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>6044</v>
+        <v>5629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>11146</v>
+        <v>10891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,148 +3024,148 @@
         <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>22515</v>
+        <v>23305</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
       </c>
       <c r="I24" s="7">
-        <v>14954</v>
+        <v>14016</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
       </c>
       <c r="N24" s="7">
-        <v>37469</v>
+        <v>37320</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>7881</v>
+        <v>8159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>9861</v>
+        <v>9028</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>17742</v>
+        <v>17187</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7">
         <v>152</v>
       </c>
       <c r="D26" s="7">
-        <v>207695</v>
+        <v>205530</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>275</v>
       </c>
       <c r="I26" s="7">
-        <v>201584</v>
+        <v>187220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
       </c>
       <c r="N26" s="7">
-        <v>409279</v>
+        <v>392750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,51 +3177,51 @@
         <v>195</v>
       </c>
       <c r="D27" s="7">
-        <v>272610</v>
+        <v>272340</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27" s="7">
         <v>335</v>
       </c>
       <c r="I27" s="7">
-        <v>252185</v>
+        <v>233994</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M27" s="7">
         <v>530</v>
       </c>
       <c r="N27" s="7">
-        <v>524795</v>
+        <v>506334</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3236,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3251,7 +3254,7 @@
         <v>28</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3266,7 +3269,7 @@
         <v>28</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,16 +3281,16 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3302,22 +3305,22 @@
         <v>28</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,7 +3341,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3353,7 +3356,7 @@
         <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3368,13 +3371,13 @@
         <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -3389,7 +3392,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3404,7 +3407,7 @@
         <v>28</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3419,13 +3422,13 @@
         <v>28</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3440,7 +3443,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3455,7 +3458,7 @@
         <v>28</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3470,58 +3473,58 @@
         <v>28</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>1370</v>
+        <v>1293</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
       </c>
       <c r="N33" s="7">
-        <v>2362</v>
+        <v>2255</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,97 +3536,97 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1221</v>
+        <v>1123</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1381</v>
+        <v>1288</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>1673</v>
+        <v>1611</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
       </c>
       <c r="N35" s="7">
-        <v>2419</v>
+        <v>2313</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,148 +3638,148 @@
         <v>9</v>
       </c>
       <c r="D36" s="7">
-        <v>11990</v>
+        <v>12338</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
       </c>
       <c r="I36" s="7">
-        <v>9414</v>
+        <v>8836</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
       </c>
       <c r="N36" s="7">
-        <v>21404</v>
+        <v>21174</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7">
         <v>24</v>
       </c>
       <c r="D37" s="7">
-        <v>27639</v>
+        <v>27552</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H37" s="7">
         <v>35</v>
       </c>
       <c r="I37" s="7">
-        <v>35072</v>
+        <v>32864</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
       </c>
       <c r="N37" s="7">
-        <v>62710</v>
+        <v>60416</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="7">
         <v>175</v>
       </c>
       <c r="D38" s="7">
-        <v>146452</v>
+        <v>143161</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H38" s="7">
         <v>229</v>
       </c>
       <c r="I38" s="7">
-        <v>146381</v>
+        <v>136593</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>404</v>
       </c>
       <c r="N38" s="7">
-        <v>292833</v>
+        <v>279754</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,51 +3791,51 @@
         <v>213</v>
       </c>
       <c r="D39" s="7">
-        <v>189941</v>
+        <v>186803</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H39" s="7">
         <v>281</v>
       </c>
       <c r="I39" s="7">
-        <v>194203</v>
+        <v>181412</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M39" s="7">
         <v>494</v>
       </c>
       <c r="N39" s="7">
-        <v>384144</v>
+        <v>368216</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3841,25 +3844,25 @@
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>2739</v>
+        <v>2625</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>2127</v>
+        <v>1986</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
@@ -3871,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>4866</v>
+        <v>4611</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>218</v>
@@ -3892,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>2229</v>
+        <v>2159</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>221</v>
@@ -3922,16 +3925,16 @@
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>2229</v>
+        <v>2159</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,7 +3955,7 @@
         <v>28</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3982,13 +3985,13 @@
         <v>28</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -4003,7 +4006,7 @@
         <v>28</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -4033,64 +4036,64 @@
         <v>28</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>2055</v>
+        <v>1814</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
       </c>
       <c r="I44" s="7">
-        <v>1497</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
       </c>
       <c r="N44" s="7">
-        <v>3552</v>
+        <v>3214</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -4105,37 +4108,37 @@
         <v>28</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
       </c>
       <c r="I45" s="7">
-        <v>1170</v>
+        <v>1108</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
       </c>
       <c r="N45" s="7">
-        <v>1170</v>
+        <v>1108</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,97 +4150,97 @@
         <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>7571</v>
+        <v>7860</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H46" s="7">
         <v>16</v>
       </c>
       <c r="I46" s="7">
-        <v>25050</v>
+        <v>46743</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M46" s="7">
         <v>20</v>
       </c>
       <c r="N46" s="7">
-        <v>32621</v>
+        <v>54603</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="7">
         <v>6</v>
       </c>
       <c r="D47" s="7">
-        <v>7982</v>
+        <v>7468</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>1646</v>
+        <v>1549</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M47" s="7">
         <v>9</v>
       </c>
       <c r="N47" s="7">
-        <v>9629</v>
+        <v>9017</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>247</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,148 +4252,148 @@
         <v>12</v>
       </c>
       <c r="D48" s="7">
-        <v>17096</v>
+        <v>16964</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
       </c>
       <c r="I48" s="7">
-        <v>20828</v>
+        <v>19572</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M48" s="7">
         <v>48</v>
       </c>
       <c r="N48" s="7">
-        <v>37924</v>
+        <v>36536</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="7">
         <v>10</v>
       </c>
       <c r="D49" s="7">
-        <v>9527</v>
+        <v>9058</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H49" s="7">
         <v>8</v>
       </c>
       <c r="I49" s="7">
-        <v>5149</v>
+        <v>4833</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M49" s="7">
         <v>18</v>
       </c>
       <c r="N49" s="7">
-        <v>14676</v>
+        <v>13891</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="7">
         <v>124</v>
       </c>
       <c r="D50" s="7">
-        <v>125891</v>
+        <v>123232</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H50" s="7">
         <v>251</v>
       </c>
       <c r="I50" s="7">
-        <v>163928</v>
+        <v>151967</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M50" s="7">
         <v>375</v>
       </c>
       <c r="N50" s="7">
-        <v>289819</v>
+        <v>275199</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,51 +4405,51 @@
         <v>161</v>
       </c>
       <c r="D51" s="7">
-        <v>175090</v>
+        <v>171180</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H51" s="7">
         <v>321</v>
       </c>
       <c r="I51" s="7">
-        <v>221395</v>
+        <v>229157</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M51" s="7">
         <v>482</v>
       </c>
       <c r="N51" s="7">
-        <v>396485</v>
+        <v>400337</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4464,7 +4467,7 @@
         <v>28</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4479,7 +4482,7 @@
         <v>28</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4494,7 +4497,7 @@
         <v>28</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4518,7 @@
         <v>28</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4530,7 +4533,7 @@
         <v>28</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4545,7 +4548,7 @@
         <v>28</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4569,7 @@
         <v>28</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4581,7 +4584,7 @@
         <v>28</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4596,13 +4599,13 @@
         <v>28</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -4617,7 +4620,7 @@
         <v>28</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4632,7 +4635,7 @@
         <v>28</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4647,22 +4650,22 @@
         <v>28</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>12</v>
@@ -4674,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="7">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>279</v>
@@ -4683,28 +4686,28 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
       </c>
       <c r="N56" s="7">
-        <v>1212</v>
+        <v>1092</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -4719,7 +4722,7 @@
         <v>28</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4734,7 +4737,7 @@
         <v>28</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -4749,7 +4752,7 @@
         <v>28</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4773,7 @@
         <v>28</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4785,7 +4788,7 @@
         <v>28</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4800,58 +4803,58 @@
         <v>28</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
       </c>
       <c r="N59" s="7">
-        <v>1230</v>
+        <v>1108</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,148 +4866,148 @@
         <v>6</v>
       </c>
       <c r="D60" s="7">
-        <v>3437</v>
+        <v>3155</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H60" s="7">
         <v>10</v>
       </c>
       <c r="I60" s="7">
-        <v>4006</v>
+        <v>3685</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M60" s="7">
         <v>16</v>
       </c>
       <c r="N60" s="7">
-        <v>7443</v>
+        <v>6840</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="7">
         <v>83</v>
       </c>
       <c r="D61" s="7">
-        <v>59305</v>
+        <v>54106</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H61" s="7">
         <v>150</v>
       </c>
       <c r="I61" s="7">
-        <v>66802</v>
+        <v>60446</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M61" s="7">
         <v>233</v>
       </c>
       <c r="N61" s="7">
-        <v>126107</v>
+        <v>114551</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7">
         <v>69</v>
       </c>
       <c r="D62" s="7">
-        <v>48681</v>
+        <v>44145</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H62" s="7">
         <v>146</v>
       </c>
       <c r="I62" s="7">
-        <v>71270</v>
+        <v>63659</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M62" s="7">
         <v>215</v>
       </c>
       <c r="N62" s="7">
-        <v>119951</v>
+        <v>107804</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,51 +5019,51 @@
         <v>160</v>
       </c>
       <c r="D63" s="7">
-        <v>112939</v>
+        <v>102774</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H63" s="7">
         <v>308</v>
       </c>
       <c r="I63" s="7">
-        <v>143005</v>
+        <v>128622</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M63" s="7">
         <v>468</v>
       </c>
       <c r="N63" s="7">
-        <v>255944</v>
+        <v>231396</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>10</v>
@@ -5078,7 +5081,7 @@
         <v>28</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5093,7 +5096,7 @@
         <v>28</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -5108,7 +5111,7 @@
         <v>28</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5132,7 @@
         <v>28</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -5144,7 +5147,7 @@
         <v>28</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -5159,7 +5162,7 @@
         <v>28</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5183,7 @@
         <v>28</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -5195,7 +5198,7 @@
         <v>28</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -5210,13 +5213,13 @@
         <v>28</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -5231,7 +5234,7 @@
         <v>28</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -5246,7 +5249,7 @@
         <v>28</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -5261,13 +5264,13 @@
         <v>28</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -5282,7 +5285,7 @@
         <v>28</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -5297,7 +5300,7 @@
         <v>28</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -5312,13 +5315,13 @@
         <v>28</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -5333,7 +5336,7 @@
         <v>28</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -5348,7 +5351,7 @@
         <v>28</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -5363,7 +5366,7 @@
         <v>28</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,64 +5378,64 @@
         <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H70" s="7">
         <v>3</v>
       </c>
       <c r="I70" s="7">
-        <v>2540</v>
+        <v>2339</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M70" s="7">
         <v>4</v>
       </c>
       <c r="N70" s="7">
-        <v>3085</v>
+        <v>2857</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C71" s="7">
         <v>4</v>
       </c>
       <c r="D71" s="7">
-        <v>3587</v>
+        <v>3457</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>317</v>
@@ -5441,31 +5444,31 @@
         <v>1</v>
       </c>
       <c r="I71" s="7">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="M71" s="7">
         <v>5</v>
       </c>
       <c r="N71" s="7">
-        <v>4280</v>
+        <v>4101</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,148 +5480,148 @@
         <v>8</v>
       </c>
       <c r="D72" s="7">
-        <v>4981</v>
+        <v>4813</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7">
+        <v>12</v>
+      </c>
+      <c r="I72" s="7">
+        <v>7555</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H72" s="7">
-        <v>12</v>
-      </c>
-      <c r="I72" s="7">
-        <v>8046</v>
-      </c>
-      <c r="J72" s="7" t="s">
+      <c r="L72" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M72" s="7">
         <v>20</v>
       </c>
       <c r="N72" s="7">
-        <v>13027</v>
+        <v>12369</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="7">
         <v>23</v>
       </c>
       <c r="D73" s="7">
-        <v>19812</v>
+        <v>19575</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H73" s="7">
         <v>19</v>
       </c>
       <c r="I73" s="7">
-        <v>15151</v>
+        <v>14173</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M73" s="7">
         <v>42</v>
       </c>
       <c r="N73" s="7">
-        <v>34963</v>
+        <v>33748</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P73" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P73" s="7" t="s">
+      <c r="Q73" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="7">
         <v>152</v>
       </c>
       <c r="D74" s="7">
-        <v>115310</v>
+        <v>112848</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H74" s="7">
         <v>210</v>
       </c>
       <c r="I74" s="7">
-        <v>123856</v>
+        <v>115671</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M74" s="7">
         <v>362</v>
       </c>
       <c r="N74" s="7">
-        <v>239168</v>
+        <v>228519</v>
       </c>
       <c r="O74" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,51 +5633,51 @@
         <v>188</v>
       </c>
       <c r="D75" s="7">
-        <v>144236</v>
+        <v>141212</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H75" s="7">
         <v>245</v>
       </c>
       <c r="I75" s="7">
-        <v>150286</v>
+        <v>140382</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M75" s="7">
         <v>433</v>
       </c>
       <c r="N75" s="7">
-        <v>294523</v>
+        <v>281594</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>10</v>
@@ -5683,46 +5686,46 @@
         <v>5</v>
       </c>
       <c r="D76" s="7">
-        <v>4196</v>
+        <v>3931</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="H76" s="7">
         <v>2</v>
       </c>
       <c r="I76" s="7">
-        <v>1466</v>
+        <v>1363</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
       </c>
       <c r="N76" s="7">
-        <v>5662</v>
+        <v>5294</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>349</v>
+        <v>171</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,46 +5737,46 @@
         <v>6</v>
       </c>
       <c r="D77" s="7">
-        <v>4598</v>
+        <v>4346</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>106</v>
+        <v>350</v>
       </c>
       <c r="H77" s="7">
         <v>9</v>
       </c>
       <c r="I77" s="7">
-        <v>5397</v>
+        <v>5043</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M77" s="7">
         <v>15</v>
       </c>
       <c r="N77" s="7">
-        <v>9995</v>
+        <v>9389</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,52 +5788,52 @@
         <v>3</v>
       </c>
       <c r="D78" s="7">
-        <v>2492</v>
+        <v>2456</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H78" s="7">
         <v>2</v>
       </c>
       <c r="I78" s="7">
-        <v>1394</v>
+        <v>1281</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M78" s="7">
         <v>5</v>
       </c>
       <c r="N78" s="7">
-        <v>3887</v>
+        <v>3737</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>359</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79" s="7">
         <v>0</v>
@@ -5845,139 +5848,139 @@
         <v>28</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H79" s="7">
         <v>3</v>
       </c>
       <c r="I79" s="7">
-        <v>2622</v>
+        <v>2482</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="M79" s="7">
         <v>3</v>
       </c>
       <c r="N79" s="7">
-        <v>2622</v>
+        <v>2482</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>361</v>
+        <v>48</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" s="7">
         <v>6</v>
       </c>
       <c r="D80" s="7">
-        <v>6169</v>
+        <v>5902</v>
       </c>
       <c r="E80" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="H80" s="7">
+        <v>12</v>
+      </c>
+      <c r="I80" s="7">
+        <v>8055</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="K80" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="H80" s="7">
-        <v>12</v>
-      </c>
-      <c r="I80" s="7">
-        <v>8672</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M80" s="7">
         <v>18</v>
       </c>
       <c r="N80" s="7">
-        <v>14841</v>
+        <v>13957</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>367</v>
+        <v>136</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C81" s="7">
         <v>4</v>
       </c>
       <c r="D81" s="7">
-        <v>5029</v>
+        <v>4913</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H81" s="7">
         <v>8</v>
       </c>
       <c r="I81" s="7">
-        <v>6333</v>
+        <v>5846</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M81" s="7">
         <v>12</v>
       </c>
       <c r="N81" s="7">
-        <v>11362</v>
+        <v>10759</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,97 +5992,97 @@
         <v>8</v>
       </c>
       <c r="D82" s="7">
-        <v>7079</v>
+        <v>6826</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="H82" s="7">
         <v>16</v>
       </c>
       <c r="I82" s="7">
-        <v>11496</v>
+        <v>10861</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="M82" s="7">
         <v>24</v>
       </c>
       <c r="N82" s="7">
-        <v>18575</v>
+        <v>17687</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C83" s="7">
         <v>8</v>
       </c>
       <c r="D83" s="7">
-        <v>8657</v>
+        <v>8392</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H83" s="7">
         <v>6</v>
       </c>
       <c r="I83" s="7">
-        <v>4151</v>
+        <v>3900</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M83" s="7">
         <v>14</v>
       </c>
       <c r="N83" s="7">
-        <v>12808</v>
+        <v>12292</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,10 +6094,10 @@
         <v>15</v>
       </c>
       <c r="D84" s="7">
-        <v>15051</v>
+        <v>14608</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>383</v>
+        <v>240</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>384</v>
@@ -6106,28 +6109,28 @@
         <v>23</v>
       </c>
       <c r="I84" s="7">
-        <v>11578</v>
+        <v>10900</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="M84" s="7">
         <v>38</v>
       </c>
       <c r="N84" s="7">
-        <v>26629</v>
+        <v>25508</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Q84" s="7" t="s">
         <v>388</v>
@@ -6136,49 +6139,49 @@
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="7">
         <v>16</v>
       </c>
       <c r="D85" s="7">
-        <v>14180</v>
+        <v>13913</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H85" s="7">
         <v>32</v>
       </c>
       <c r="I85" s="7">
-        <v>26591</v>
+        <v>24084</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>118</v>
+        <v>346</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M85" s="7">
         <v>48</v>
       </c>
       <c r="N85" s="7">
-        <v>40771</v>
+        <v>37997</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>394</v>
+        <v>85</v>
       </c>
       <c r="Q85" s="7" t="s">
         <v>395</v>
@@ -6187,13 +6190,13 @@
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="7">
         <v>204</v>
       </c>
       <c r="D86" s="7">
-        <v>215589</v>
+        <v>215544</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>396</v>
@@ -6208,31 +6211,31 @@
         <v>337</v>
       </c>
       <c r="I86" s="7">
-        <v>346738</v>
+        <v>423244</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>399</v>
       </c>
       <c r="K86" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M86" s="7">
         <v>541</v>
       </c>
       <c r="N86" s="7">
-        <v>562327</v>
+        <v>638788</v>
       </c>
       <c r="O86" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P86" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P86" s="7" t="s">
+      <c r="Q86" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,51 +6247,51 @@
         <v>275</v>
       </c>
       <c r="D87" s="7">
-        <v>283042</v>
+        <v>280830</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H87" s="7">
         <v>450</v>
       </c>
       <c r="I87" s="7">
-        <v>426438</v>
+        <v>497060</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M87" s="7">
         <v>725</v>
       </c>
       <c r="N87" s="7">
-        <v>709480</v>
+        <v>777890</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>10</v>
@@ -6306,22 +6309,22 @@
         <v>28</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
-      </c>
-      <c r="I88" s="7">
-        <v>0</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -6357,22 +6360,22 @@
         <v>28</v>
       </c>
       <c r="G89" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M89" s="7">
         <v>0</v>
@@ -6408,22 +6411,22 @@
         <v>28</v>
       </c>
       <c r="G90" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M90" s="7">
         <v>0</v>
@@ -6444,7 +6447,7 @@
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91" s="7">
         <v>0</v>
@@ -6459,22 +6462,22 @@
         <v>28</v>
       </c>
       <c r="G91" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7">
-        <v>0</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
@@ -6495,7 +6498,7 @@
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C92" s="7">
         <v>0</v>
@@ -6510,22 +6513,22 @@
         <v>28</v>
       </c>
       <c r="G92" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="H92" s="7">
-        <v>0</v>
-      </c>
-      <c r="I92" s="7">
-        <v>0</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -6546,7 +6549,7 @@
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C93" s="7">
         <v>0</v>
@@ -6561,22 +6564,22 @@
         <v>28</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M93" s="7">
         <v>0</v>
@@ -6612,43 +6615,43 @@
         <v>28</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
       </c>
       <c r="I94" s="7">
-        <v>1105</v>
+        <v>924</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="M94" s="7">
         <v>1</v>
       </c>
       <c r="N94" s="7">
-        <v>1105</v>
+        <v>924</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="P94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95" s="7">
         <v>0</v>
@@ -6663,37 +6666,37 @@
         <v>28</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
       </c>
       <c r="I95" s="7">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c r="J95" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M95" s="7">
         <v>1</v>
       </c>
       <c r="N95" s="7">
-        <v>625</v>
+        <v>541</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="P95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,148 +6708,148 @@
         <v>9</v>
       </c>
       <c r="D96" s="7">
-        <v>9559</v>
+        <v>8210</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>410</v>
+        <v>233</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="H96" s="7">
         <v>4</v>
       </c>
       <c r="I96" s="7">
-        <v>3405</v>
+        <v>2886</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>412</v>
+        <v>182</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>407</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="M96" s="7">
         <v>13</v>
       </c>
       <c r="N96" s="7">
-        <v>12964</v>
+        <v>11096</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>286</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" s="7">
         <v>64</v>
       </c>
       <c r="D97" s="7">
-        <v>64016</v>
+        <v>54427</v>
       </c>
       <c r="E97" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H97" s="7">
         <v>51</v>
       </c>
       <c r="I97" s="7">
-        <v>37783</v>
+        <v>31809</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M97" s="7">
         <v>115</v>
       </c>
       <c r="N97" s="7">
-        <v>101799</v>
+        <v>86237</v>
       </c>
       <c r="O97" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q97" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P97" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q97" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C98" s="7">
         <v>320</v>
       </c>
       <c r="D98" s="7">
-        <v>331249</v>
+        <v>280082</v>
       </c>
       <c r="E98" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H98" s="7">
         <v>441</v>
       </c>
       <c r="I98" s="7">
-        <v>361142</v>
+        <v>297689</v>
       </c>
       <c r="J98" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M98" s="7">
         <v>761</v>
       </c>
       <c r="N98" s="7">
-        <v>692390</v>
+        <v>577772</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>429</v>
+        <v>206</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,46 +6861,46 @@
         <v>393</v>
       </c>
       <c r="D99" s="7">
-        <v>404824</v>
+        <v>342719</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H99" s="7">
         <v>498</v>
       </c>
       <c r="I99" s="7">
-        <v>404061</v>
+        <v>333849</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M99" s="7">
         <v>891</v>
       </c>
       <c r="N99" s="7">
-        <v>808884</v>
+        <v>676569</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,46 +6914,46 @@
         <v>10</v>
       </c>
       <c r="D100" s="7">
-        <v>9386</v>
+        <v>9066</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="H100" s="7">
         <v>10</v>
       </c>
       <c r="I100" s="7">
-        <v>7834</v>
+        <v>7360</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="M100" s="7">
         <v>20</v>
       </c>
       <c r="N100" s="7">
-        <v>17220</v>
+        <v>16426</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>110</v>
+        <v>318</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,46 +6965,46 @@
         <v>14</v>
       </c>
       <c r="D101" s="7">
-        <v>13094</v>
+        <v>12961</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>433</v>
+        <v>311</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H101" s="7">
         <v>14</v>
       </c>
       <c r="I101" s="7">
-        <v>9848</v>
+        <v>9284</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="M101" s="7">
         <v>28</v>
       </c>
       <c r="N101" s="7">
-        <v>22942</v>
+        <v>22245</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>152</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,52 +7016,52 @@
         <v>3</v>
       </c>
       <c r="D102" s="7">
-        <v>2492</v>
+        <v>2456</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H102" s="7">
         <v>3</v>
       </c>
       <c r="I102" s="7">
-        <v>2767</v>
+        <v>3004</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>182</v>
+        <v>436</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="M102" s="7">
         <v>6</v>
       </c>
       <c r="N102" s="7">
-        <v>5260</v>
+        <v>5460</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>436</v>
+        <v>181</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C103" s="7">
         <v>0</v>
@@ -7073,139 +7076,139 @@
         <v>28</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="H103" s="7">
         <v>3</v>
       </c>
       <c r="I103" s="7">
-        <v>2622</v>
+        <v>2482</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>182</v>
+        <v>436</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="M103" s="7">
         <v>3</v>
       </c>
       <c r="N103" s="7">
-        <v>2622</v>
+        <v>2482</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C104" s="7">
         <v>14</v>
       </c>
       <c r="D104" s="7">
-        <v>15284</v>
+        <v>14696</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>30</v>
+        <v>439</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H104" s="7">
         <v>24</v>
       </c>
       <c r="I104" s="7">
-        <v>15204</v>
+        <v>14436</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>309</v>
+        <v>440</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>441</v>
+        <v>224</v>
       </c>
       <c r="M104" s="7">
         <v>38</v>
       </c>
       <c r="N104" s="7">
-        <v>30488</v>
+        <v>29132</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>442</v>
+        <v>261</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>99</v>
+        <v>349</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>226</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C105" s="7">
         <v>15</v>
       </c>
       <c r="D105" s="7">
-        <v>19133</v>
+        <v>20097</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>11</v>
+        <v>408</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="H105" s="7">
         <v>14</v>
       </c>
       <c r="I105" s="7">
-        <v>10949</v>
+        <v>10211</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="M105" s="7">
         <v>29</v>
       </c>
       <c r="N105" s="7">
-        <v>30082</v>
+        <v>30308</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,97 +7220,97 @@
         <v>27</v>
       </c>
       <c r="D106" s="7">
-        <v>30106</v>
+        <v>30922</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>157</v>
+        <v>443</v>
       </c>
       <c r="F106" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H106" s="7">
         <v>51</v>
       </c>
       <c r="I106" s="7">
-        <v>53946</v>
+        <v>74209</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M106" s="7">
         <v>78</v>
       </c>
       <c r="N106" s="7">
-        <v>84053</v>
+        <v>105131</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C107" s="7">
         <v>31</v>
       </c>
       <c r="D107" s="7">
-        <v>33179</v>
+        <v>33180</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="H107" s="7">
         <v>30</v>
       </c>
       <c r="I107" s="7">
-        <v>17751</v>
+        <v>17005</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="M107" s="7">
         <v>61</v>
       </c>
       <c r="N107" s="7">
-        <v>50930</v>
+        <v>50184</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>451</v>
+        <v>173</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,28 +7322,28 @@
         <v>78</v>
       </c>
       <c r="D108" s="7">
-        <v>90281</v>
+        <v>92646</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>454</v>
+        <v>287</v>
       </c>
       <c r="H108" s="7">
         <v>132</v>
       </c>
       <c r="I108" s="7">
-        <v>78117</v>
+        <v>73667</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>455</v>
+        <v>33</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>456</v>
@@ -7349,118 +7352,118 @@
         <v>210</v>
       </c>
       <c r="N108" s="7">
-        <v>168398</v>
+        <v>166314</v>
       </c>
       <c r="O108" s="7" t="s">
         <v>457</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>217</v>
+        <v>458</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C109" s="7">
         <v>227</v>
       </c>
       <c r="D109" s="7">
-        <v>204356</v>
+        <v>188942</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H109" s="7">
         <v>314</v>
       </c>
       <c r="I109" s="7">
-        <v>200555</v>
+        <v>181557</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M109" s="7">
         <v>541</v>
       </c>
       <c r="N109" s="7">
-        <v>404910</v>
+        <v>370499</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C110" s="7">
         <v>1344</v>
       </c>
       <c r="D110" s="7">
-        <v>1300176</v>
+        <v>1250069</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H110" s="7">
         <v>2148</v>
       </c>
       <c r="I110" s="7">
-        <v>1545861</v>
+        <v>1514580</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>470</v>
+        <v>93</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M110" s="7">
         <v>3492</v>
       </c>
       <c r="N110" s="7">
-        <v>2846037</v>
+        <v>2764650</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,51 +7475,51 @@
         <v>1763</v>
       </c>
       <c r="D111" s="7">
-        <v>1717488</v>
+        <v>1655035</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H111" s="7">
         <v>2743</v>
       </c>
       <c r="I111" s="7">
-        <v>1945454</v>
+        <v>1907795</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M111" s="7">
         <v>4506</v>
       </c>
       <c r="N111" s="7">
-        <v>3662941</v>
+        <v>3562831</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
